--- a/Solvarg_Framework/Assets/AssetPackage/database/excel_database/UIConfig.xlsx
+++ b/Solvarg_Framework/Assets/AssetPackage/database/excel_database/UIConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Assets/AssetPackage/UI/UIMenu.prefab</t>
   </si>
 </sst>
 </file>
@@ -71,12 +77,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +93,80 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,17 +180,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,58 +204,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -183,54 +214,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,187 +244,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +442,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,6 +458,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,42 +495,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -536,153 +515,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,13 +1037,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="28.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
@@ -1130,6 +1129,26 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Solvarg_Framework/Assets/AssetPackage/database/excel_database/UIConfig.xlsx
+++ b/Solvarg_Framework/Assets/AssetPackage/database/excel_database/UIConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Assets/AssetPackage/UI/UIMenu.prefab</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Assets/AssetPackage/UI/UIProgress.prefab</t>
   </si>
 </sst>
 </file>
@@ -99,7 +105,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,8 +132,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -121,21 +165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,30 +173,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,6 +204,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -196,15 +219,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -212,24 +234,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,43 +250,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,139 +400,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,15 +441,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,17 +459,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,15 +479,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,11 +509,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,133 +561,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,13 +1043,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="28.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
@@ -1149,6 +1155,26 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>1002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
       </c>
     </row>
